--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -550,13 +550,13 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>4188.7</v>
+        <v>4189.6</v>
       </c>
       <c r="E4">
-        <v>69</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F4">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="G4">
         <v>50</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -49,7 +49,7 @@
     <t>판단</t>
   </si>
   <si>
-    <t>2025-11-27</t>
+    <t>2025-11-28</t>
   </si>
   <si>
     <t>StreetTRACKS Gold Shares</t>
@@ -550,13 +550,13 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>4189.6</v>
+        <v>4190.4</v>
       </c>
       <c r="E4">
         <v>69.09999999999999</v>
       </c>
       <c r="F4">
-        <v>3.16</v>
+        <v>3.18</v>
       </c>
       <c r="G4">
         <v>50</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>날짜</t>
   </si>
@@ -34,43 +34,61 @@
     <t>5일수익률</t>
   </si>
   <si>
-    <t>점수</t>
-  </si>
-  <si>
-    <t>3일확률</t>
-  </si>
-  <si>
-    <t>5일확률</t>
-  </si>
-  <si>
-    <t>10일확률</t>
+    <t>점수(룰)</t>
+  </si>
+  <si>
+    <t>3일상승확률(%)</t>
+  </si>
+  <si>
+    <t>5일상승확률(%)</t>
+  </si>
+  <si>
+    <t>10일상승확률(%)</t>
+  </si>
+  <si>
+    <t>최종점수</t>
+  </si>
+  <si>
+    <t>예측방식</t>
   </si>
   <si>
     <t>판단</t>
   </si>
   <si>
-    <t>2025-11-28</t>
+    <t>MACRO_SCORE</t>
+  </si>
+  <si>
+    <t>MACRO_SIGNAL</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>Newmont Corporation</t>
   </si>
   <si>
     <t>StreetTRACKS Gold Shares</t>
   </si>
   <si>
-    <t>Newmont Corporation</t>
-  </si>
-  <si>
     <t>Gold Dec 25</t>
   </si>
   <si>
+    <t>NEM</t>
+  </si>
+  <si>
     <t>GLD</t>
   </si>
   <si>
-    <t>NEM</t>
-  </si>
-  <si>
     <t>GC=F</t>
   </si>
   <si>
-    <t>건드리지 말기</t>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>📈 매수 관찰 구간입니다.</t>
+  </si>
+  <si>
+    <t>🟢 완화적 (상승 우위)</t>
   </si>
 </sst>
 </file>
@@ -428,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,98 +486,125 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>90.79000000000001</v>
+      </c>
+      <c r="F2">
+        <v>11.04</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>66</v>
+      </c>
+      <c r="I2">
+        <v>73</v>
+      </c>
+      <c r="J2">
+        <v>80</v>
+      </c>
+      <c r="K2">
+        <v>69.8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="D2">
-        <v>383.12</v>
-      </c>
-      <c r="E2">
-        <v>68</v>
-      </c>
-      <c r="F2">
-        <v>2.18</v>
-      </c>
-      <c r="G2">
-        <v>60</v>
-      </c>
-      <c r="H2">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>387.89</v>
+      </c>
+      <c r="F3">
+        <v>3.48</v>
+      </c>
+      <c r="G3">
         <v>50</v>
       </c>
-      <c r="I2">
-        <v>60</v>
-      </c>
-      <c r="J2">
+      <c r="H3">
+        <v>56</v>
+      </c>
+      <c r="I3">
         <v>70</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J3">
+        <v>73</v>
+      </c>
+      <c r="K3">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>90.52</v>
-      </c>
-      <c r="E3">
-        <v>62.6</v>
-      </c>
-      <c r="F3">
-        <v>3.74</v>
-      </c>
-      <c r="G3">
-        <v>60</v>
-      </c>
-      <c r="H3">
-        <v>63</v>
-      </c>
-      <c r="I3">
-        <v>73</v>
-      </c>
-      <c r="J3">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>4190.4</v>
-      </c>
-      <c r="E4">
-        <v>69.09999999999999</v>
+        <v>4247.7</v>
       </c>
       <c r="F4">
-        <v>3.18</v>
+        <v>4.59</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>40</v>
@@ -570,8 +615,20 @@
       <c r="J4">
         <v>70</v>
       </c>
-      <c r="K4" t="s">
-        <v>18</v>
+      <c r="K4">
+        <v>62.8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4">
+        <v>85.36763896678245</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -64,19 +64,19 @@
     <t>2025-11-29</t>
   </si>
   <si>
+    <t>StreetTRACKS Gold Shares</t>
+  </si>
+  <si>
     <t>Newmont Corporation</t>
   </si>
   <si>
-    <t>StreetTRACKS Gold Shares</t>
-  </si>
-  <si>
     <t>Gold Dec 25</t>
   </si>
   <si>
+    <t>GLD</t>
+  </si>
+  <si>
     <t>NEM</t>
-  </si>
-  <si>
-    <t>GLD</t>
   </si>
   <si>
     <t>GC=F</t>
@@ -510,25 +510,25 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>90.79000000000001</v>
+        <v>387.88</v>
       </c>
       <c r="F2">
-        <v>11.04</v>
+        <v>3.48</v>
       </c>
       <c r="G2">
         <v>50</v>
       </c>
       <c r="H2">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I2">
+        <v>70</v>
+      </c>
+      <c r="J2">
         <v>73</v>
       </c>
-      <c r="J2">
-        <v>80</v>
-      </c>
       <c r="K2">
-        <v>69.8</v>
+        <v>68.8</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -537,7 +537,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -554,25 +554,25 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>387.89</v>
+        <v>91</v>
       </c>
       <c r="F3">
-        <v>3.48</v>
+        <v>11.29</v>
       </c>
       <c r="G3">
         <v>50</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I3">
         <v>70</v>
       </c>
       <c r="J3">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K3">
-        <v>68.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -581,7 +581,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
@@ -616,7 +616,7 @@
         <v>70</v>
       </c>
       <c r="K4">
-        <v>62.8</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -625,7 +625,7 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>85.36763896678245</v>
+        <v>85.96878041621773</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -537,7 +537,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -581,7 +581,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
@@ -598,10 +598,10 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4247.7</v>
+        <v>4218.3</v>
       </c>
       <c r="F4">
-        <v>4.59</v>
+        <v>3.87</v>
       </c>
       <c r="G4">
         <v>40</v>
@@ -610,13 +610,13 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K4">
-        <v>63</v>
+        <v>64.2</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -625,7 +625,7 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>85.96878041621773</v>
+        <v>85.83574689470727</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -528,7 +528,7 @@
         <v>73</v>
       </c>
       <c r="K2">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -537,7 +537,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -572,7 +572,7 @@
         <v>76</v>
       </c>
       <c r="K3">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -581,7 +581,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
@@ -616,7 +616,7 @@
         <v>66</v>
       </c>
       <c r="K4">
-        <v>64.2</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -625,7 +625,7 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>85.83574689470727</v>
+        <v>85.82376350509293</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -64,19 +64,19 @@
     <t>2025-11-29</t>
   </si>
   <si>
+    <t>Newmont Corporation</t>
+  </si>
+  <si>
     <t>StreetTRACKS Gold Shares</t>
   </si>
   <si>
-    <t>Newmont Corporation</t>
-  </si>
-  <si>
     <t>Gold Dec 25</t>
   </si>
   <si>
+    <t>NEM</t>
+  </si>
+  <si>
     <t>GLD</t>
-  </si>
-  <si>
-    <t>NEM</t>
   </si>
   <si>
     <t>GC=F</t>
@@ -510,25 +510,25 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>387.88</v>
+        <v>90.73</v>
       </c>
       <c r="F2">
-        <v>3.48</v>
+        <v>10.97</v>
       </c>
       <c r="G2">
         <v>50</v>
       </c>
       <c r="H2">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K2">
-        <v>68.7</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -537,7 +537,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -554,22 +554,22 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>91</v>
+        <v>387.88</v>
       </c>
       <c r="F3">
-        <v>11.29</v>
+        <v>3.48</v>
       </c>
       <c r="G3">
         <v>50</v>
       </c>
       <c r="H3">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I3">
         <v>70</v>
       </c>
       <c r="J3">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K3">
         <v>68.7</v>
@@ -581,7 +581,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
@@ -625,7 +625,7 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>85.82376350509293</v>
+        <v>85.77505782882612</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -528,7 +528,7 @@
         <v>80</v>
       </c>
       <c r="K2">
-        <v>69.90000000000001</v>
+        <v>70</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -537,7 +537,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -572,7 +572,7 @@
         <v>73</v>
       </c>
       <c r="K3">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -581,7 +581,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
@@ -616,7 +616,7 @@
         <v>66</v>
       </c>
       <c r="K4">
-        <v>64.09999999999999</v>
+        <v>64.2</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -625,7 +625,7 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>85.77505782882612</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -537,7 +537,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -581,7 +581,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
@@ -625,7 +625,7 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>85.8724807945396</v>
+        <v>85.92117485762657</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -537,7 +537,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -581,7 +581,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
@@ -625,7 +625,7 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>85.92117485762657</v>
+        <v>85.8724807945396</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -512,11 +512,14 @@
       <c r="D2">
         <v>90.73</v>
       </c>
+      <c r="E2">
+        <v>61.8</v>
+      </c>
       <c r="F2">
         <v>10.97</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>63</v>
@@ -528,7 +531,7 @@
         <v>80</v>
       </c>
       <c r="K2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -537,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -556,11 +559,14 @@
       <c r="D3">
         <v>387.88</v>
       </c>
+      <c r="E3">
+        <v>69.59999999999999</v>
+      </c>
       <c r="F3">
         <v>3.48</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -572,7 +578,7 @@
         <v>73</v>
       </c>
       <c r="K3">
-        <v>68.8</v>
+        <v>71.8</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -581,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
@@ -598,10 +604,13 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4218.3</v>
+        <v>4254.9</v>
+      </c>
+      <c r="E4">
+        <v>72.40000000000001</v>
       </c>
       <c r="F4">
-        <v>3.87</v>
+        <v>4.77</v>
       </c>
       <c r="G4">
         <v>40</v>
@@ -610,13 +619,13 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J4">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K4">
-        <v>64.2</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -625,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>85.8724807945396</v>
+        <v>85.87127175646313</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-11-29</t>
+    <t>2025-12-01</t>
   </si>
   <si>
     <t>Newmont Corporation</t>
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>85.87127175646313</v>
+        <v>85.87246918135976</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
@@ -604,13 +604,13 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4254.9</v>
+        <v>4281.8</v>
       </c>
       <c r="E4">
-        <v>72.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="F4">
-        <v>4.77</v>
+        <v>5.43</v>
       </c>
       <c r="G4">
         <v>40</v>
@@ -619,13 +619,13 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J4">
         <v>70</v>
       </c>
       <c r="K4">
-        <v>63</v>
+        <v>60.2</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>85.87246918135976</v>
+        <v>85.92500513438651</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>날짜</t>
   </si>
@@ -61,24 +61,24 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-01</t>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>StreetTRACKS Gold Shares</t>
   </si>
   <si>
     <t>Newmont Corporation</t>
   </si>
   <si>
-    <t>StreetTRACKS Gold Shares</t>
-  </si>
-  <si>
     <t>Gold Dec 25</t>
   </si>
   <si>
+    <t>GLD</t>
+  </si>
+  <si>
     <t>NEM</t>
   </si>
   <si>
-    <t>GLD</t>
-  </si>
-  <si>
     <t>GC=F</t>
   </si>
   <si>
@@ -88,7 +88,10 @@
     <t>📈 매수 관찰 구간입니다.</t>
   </si>
   <si>
-    <t>🟢 완화적 (상승 우위)</t>
+    <t>⛔ 관망하십시오.</t>
+  </si>
+  <si>
+    <t>🟢 상승 우위 (다소 완화)</t>
   </si>
 </sst>
 </file>
@@ -510,28 +513,28 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>90.73</v>
+        <v>385.92</v>
       </c>
       <c r="E2">
-        <v>61.8</v>
+        <v>56.9</v>
       </c>
       <c r="F2">
-        <v>10.97</v>
+        <v>1.5</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I2">
         <v>73</v>
       </c>
       <c r="J2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K2">
-        <v>73</v>
+        <v>66.8</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -540,10 +543,10 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>85.92500513438651</v>
+        <v>65.32892478746797</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -557,28 +560,28 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>387.88</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E3">
-        <v>69.59999999999999</v>
+        <v>49.8</v>
       </c>
       <c r="F3">
-        <v>3.48</v>
+        <v>3.85</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>70</v>
       </c>
       <c r="J3">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K3">
-        <v>71.8</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -587,10 +590,10 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>85.92500513438651</v>
+        <v>65.32892478746797</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -604,13 +607,13 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4281.8</v>
+        <v>4226.9</v>
       </c>
       <c r="E4">
-        <v>73.5</v>
+        <v>71</v>
       </c>
       <c r="F4">
-        <v>5.43</v>
+        <v>4.08</v>
       </c>
       <c r="G4">
         <v>40</v>
@@ -619,25 +622,25 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J4">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K4">
-        <v>60.2</v>
+        <v>56.8</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4">
-        <v>85.92500513438651</v>
+        <v>65.32892478746797</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -513,19 +513,19 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>385.92</v>
+        <v>387.24</v>
       </c>
       <c r="E2">
-        <v>56.9</v>
+        <v>58.6</v>
       </c>
       <c r="F2">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I2">
         <v>73</v>
@@ -534,7 +534,7 @@
         <v>76</v>
       </c>
       <c r="K2">
-        <v>66.8</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -543,7 +543,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -560,13 +560,13 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>89.59999999999999</v>
+        <v>90.48</v>
       </c>
       <c r="E3">
-        <v>49.8</v>
+        <v>51.4</v>
       </c>
       <c r="F3">
-        <v>3.85</v>
+        <v>4.87</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -575,13 +575,13 @@
         <v>70</v>
       </c>
       <c r="I3">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J3">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K3">
-        <v>65.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -607,13 +607,13 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4226.9</v>
+        <v>4240</v>
       </c>
       <c r="E4">
-        <v>71</v>
+        <v>71.7</v>
       </c>
       <c r="F4">
-        <v>4.08</v>
+        <v>4.4</v>
       </c>
       <c r="G4">
         <v>40</v>
@@ -625,10 +625,10 @@
         <v>63</v>
       </c>
       <c r="J4">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K4">
-        <v>56.8</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="N4">
-        <v>65.32892478746797</v>
+        <v>66.04328690552585</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -607,13 +607,13 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4240</v>
+        <v>4246.4</v>
       </c>
       <c r="E4">
-        <v>71.7</v>
+        <v>72</v>
       </c>
       <c r="F4">
-        <v>4.4</v>
+        <v>4.56</v>
       </c>
       <c r="G4">
         <v>40</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -543,7 +543,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -607,13 +607,13 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4246.4</v>
+        <v>4237.5</v>
       </c>
       <c r="E4">
-        <v>72</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="F4">
-        <v>4.56</v>
+        <v>4.34</v>
       </c>
       <c r="G4">
         <v>40</v>
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="N4">
-        <v>66.04328690552585</v>
+        <v>66.09241856096124</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-03</t>
+    <t>2025-12-05</t>
   </si>
   <si>
     <t>StreetTRACKS Gold Shares</t>
@@ -70,7 +70,7 @@
     <t>Newmont Corporation</t>
   </si>
   <si>
-    <t>Gold Dec 25</t>
+    <t>Gold Feb 26</t>
   </si>
   <si>
     <t>GLD</t>
@@ -91,7 +91,7 @@
     <t>⛔ 관망하십시오.</t>
   </si>
   <si>
-    <t>🟢 상승 우위 (다소 완화)</t>
+    <t>⚪ 중립 구간</t>
   </si>
 </sst>
 </file>
@@ -513,28 +513,28 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>387.24</v>
+        <v>387.6</v>
       </c>
       <c r="E2">
-        <v>58.6</v>
+        <v>56.8</v>
       </c>
       <c r="F2">
-        <v>1.85</v>
+        <v>1.17</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="K2">
-        <v>67</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -543,7 +543,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -560,28 +560,28 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>90.48</v>
+        <v>90.45</v>
       </c>
       <c r="E3">
-        <v>51.4</v>
+        <v>52.1</v>
       </c>
       <c r="F3">
-        <v>4.87</v>
+        <v>-0.08</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I3">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="J3">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K3">
-        <v>67</v>
+        <v>62.7</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -607,19 +607,19 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4237.5</v>
+        <v>4243.3</v>
       </c>
       <c r="E4">
-        <v>71.59999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="F4">
-        <v>4.34</v>
+        <v>4.48</v>
       </c>
       <c r="G4">
         <v>40</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I4">
         <v>63</v>
@@ -628,7 +628,7 @@
         <v>70</v>
       </c>
       <c r="K4">
-        <v>57</v>
+        <v>52.9</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="N4">
-        <v>66.09241856096124</v>
+        <v>52.43913937059539</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -513,7 +513,7 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>387.6</v>
+        <v>387.58</v>
       </c>
       <c r="E2">
         <v>56.8</v>
@@ -543,7 +543,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -560,13 +560,13 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>90.45</v>
+        <v>90.34999999999999</v>
       </c>
       <c r="E3">
-        <v>52.1</v>
+        <v>51.9</v>
       </c>
       <c r="F3">
-        <v>-0.08</v>
+        <v>-0.19</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -607,28 +607,28 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4243.3</v>
+        <v>4244.8</v>
       </c>
       <c r="E4">
-        <v>71.8</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F4">
-        <v>4.48</v>
+        <v>4.52</v>
       </c>
       <c r="G4">
         <v>40</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J4">
         <v>70</v>
       </c>
       <c r="K4">
-        <v>52.9</v>
+        <v>51.7</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="N4">
-        <v>52.43913937059539</v>
+        <v>52.47848103381103</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -513,13 +513,13 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>387.58</v>
+        <v>387.49</v>
       </c>
       <c r="E2">
-        <v>56.8</v>
+        <v>56.7</v>
       </c>
       <c r="F2">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -534,7 +534,7 @@
         <v>93</v>
       </c>
       <c r="K2">
-        <v>66.90000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -543,7 +543,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -560,16 +560,16 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>90.34999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E3">
-        <v>51.9</v>
+        <v>52.4</v>
       </c>
       <c r="F3">
-        <v>-0.19</v>
+        <v>0.08</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>80</v>
@@ -581,7 +581,7 @@
         <v>83</v>
       </c>
       <c r="K3">
-        <v>62.7</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -607,28 +607,28 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4244.8</v>
+        <v>4242</v>
       </c>
       <c r="E4">
-        <v>71.90000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="F4">
-        <v>4.52</v>
+        <v>4.45</v>
       </c>
       <c r="G4">
         <v>40</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I4">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4">
         <v>70</v>
       </c>
       <c r="K4">
-        <v>51.7</v>
+        <v>53.3</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="N4">
-        <v>52.47848103381103</v>
+        <v>53.62998959737769</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -513,13 +513,13 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>387.49</v>
+        <v>387.69</v>
       </c>
       <c r="E2">
-        <v>56.7</v>
+        <v>57</v>
       </c>
       <c r="F2">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -543,7 +543,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -560,28 +560,28 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>90.59999999999999</v>
+        <v>90.64</v>
       </c>
       <c r="E3">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="F3">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I3">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J3">
         <v>83</v>
       </c>
       <c r="K3">
-        <v>66.09999999999999</v>
+        <v>64.5</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -607,28 +607,28 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4242</v>
+        <v>4247</v>
       </c>
       <c r="E4">
-        <v>71.8</v>
+        <v>72</v>
       </c>
       <c r="F4">
-        <v>4.45</v>
+        <v>4.57</v>
       </c>
       <c r="G4">
         <v>40</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J4">
         <v>70</v>
       </c>
       <c r="K4">
-        <v>53.3</v>
+        <v>52.1</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="N4">
-        <v>53.62998959737769</v>
+        <v>53.71147335634279</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -513,13 +513,13 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>387.69</v>
+        <v>386.87</v>
       </c>
       <c r="E2">
-        <v>57</v>
+        <v>55.9</v>
       </c>
       <c r="F2">
-        <v>1.19</v>
+        <v>0.98</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -528,13 +528,13 @@
         <v>73</v>
       </c>
       <c r="I2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K2">
-        <v>67.3</v>
+        <v>66.2</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -543,7 +543,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -566,7 +566,7 @@
         <v>52.5</v>
       </c>
       <c r="F3">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -581,7 +581,7 @@
         <v>83</v>
       </c>
       <c r="K3">
-        <v>64.5</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -607,28 +607,28 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4247</v>
+        <v>4241.1</v>
       </c>
       <c r="E4">
-        <v>72</v>
+        <v>71.7</v>
       </c>
       <c r="F4">
-        <v>4.57</v>
+        <v>4.43</v>
       </c>
       <c r="G4">
         <v>40</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I4">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4">
         <v>70</v>
       </c>
       <c r="K4">
-        <v>52.1</v>
+        <v>53.4</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="N4">
-        <v>53.71147335634279</v>
+        <v>54.02451352198364</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>날짜</t>
   </si>
@@ -67,28 +67,25 @@
     <t>StreetTRACKS Gold Shares</t>
   </si>
   <si>
+    <t>Gold Feb 26</t>
+  </si>
+  <si>
     <t>Newmont Corporation</t>
   </si>
   <si>
-    <t>Gold Feb 26</t>
-  </si>
-  <si>
     <t>GLD</t>
   </si>
   <si>
+    <t>GC=F</t>
+  </si>
+  <si>
     <t>NEM</t>
   </si>
   <si>
-    <t>GC=F</t>
-  </si>
-  <si>
     <t>Pattern</t>
   </si>
   <si>
     <t>📈 매수 관찰 구간입니다.</t>
-  </si>
-  <si>
-    <t>⛔ 관망하십시오.</t>
   </si>
   <si>
     <t>⚪ 중립 구간</t>
@@ -513,13 +510,13 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>386.87</v>
+        <v>387.13</v>
       </c>
       <c r="E2">
-        <v>55.9</v>
+        <v>56.3</v>
       </c>
       <c r="F2">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -528,13 +525,13 @@
         <v>73</v>
       </c>
       <c r="I2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J2">
         <v>96</v>
       </c>
       <c r="K2">
-        <v>66.2</v>
+        <v>67.7</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -543,10 +540,10 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -560,28 +557,28 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>90.64</v>
+        <v>4229.4</v>
       </c>
       <c r="E3">
-        <v>52.5</v>
+        <v>54.8</v>
       </c>
       <c r="F3">
-        <v>0.13</v>
+        <v>1.54</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I3">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J3">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K3">
-        <v>64.59999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -590,10 +587,10 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>54.02451352198364</v>
+        <v>54.85170003294819</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -607,40 +604,40 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4241.1</v>
+        <v>90.72</v>
       </c>
       <c r="E4">
-        <v>71.7</v>
+        <v>52.7</v>
       </c>
       <c r="F4">
-        <v>4.43</v>
+        <v>0.22</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="I4">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="J4">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="K4">
-        <v>53.4</v>
+        <v>66.5</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4">
+        <v>54.85170003294819</v>
+      </c>
+      <c r="O4" t="s">
         <v>24</v>
-      </c>
-      <c r="N4">
-        <v>54.02451352198364</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -64,19 +64,19 @@
     <t>2025-12-05</t>
   </si>
   <si>
+    <t>Gold Feb 26</t>
+  </si>
+  <si>
     <t>StreetTRACKS Gold Shares</t>
   </si>
   <si>
-    <t>Gold Feb 26</t>
-  </si>
-  <si>
     <t>Newmont Corporation</t>
   </si>
   <si>
+    <t>GC=F</t>
+  </si>
+  <si>
     <t>GLD</t>
-  </si>
-  <si>
-    <t>GC=F</t>
   </si>
   <si>
     <t>NEM</t>
@@ -510,25 +510,25 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>387.13</v>
+        <v>4237.1</v>
       </c>
       <c r="E2">
-        <v>56.3</v>
+        <v>55.6</v>
       </c>
       <c r="F2">
-        <v>1.05</v>
+        <v>1.73</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I2">
         <v>83</v>
       </c>
       <c r="J2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K2">
         <v>67.7</v>
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -557,28 +557,28 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>4229.4</v>
+        <v>387.13</v>
       </c>
       <c r="E3">
-        <v>54.8</v>
+        <v>56.3</v>
       </c>
       <c r="F3">
-        <v>1.54</v>
+        <v>1.05</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I3">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J3">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="K3">
-        <v>66.5</v>
+        <v>67.7</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>54.85170003294819</v>
+        <v>54.86376272656823</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -64,19 +64,19 @@
     <t>2025-12-05</t>
   </si>
   <si>
+    <t>StreetTRACKS Gold Shares</t>
+  </si>
+  <si>
     <t>Gold Feb 26</t>
   </si>
   <si>
-    <t>StreetTRACKS Gold Shares</t>
-  </si>
-  <si>
     <t>Newmont Corporation</t>
   </si>
   <si>
+    <t>GLD</t>
+  </si>
+  <si>
     <t>GC=F</t>
-  </si>
-  <si>
-    <t>GLD</t>
   </si>
   <si>
     <t>NEM</t>
@@ -510,25 +510,25 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>4237.1</v>
+        <v>387.13</v>
       </c>
       <c r="E2">
-        <v>55.6</v>
+        <v>56.3</v>
       </c>
       <c r="F2">
-        <v>1.73</v>
+        <v>1.05</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I2">
         <v>83</v>
       </c>
       <c r="J2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K2">
         <v>67.7</v>
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -557,28 +557,28 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>387.13</v>
+        <v>4232.2</v>
       </c>
       <c r="E3">
-        <v>56.3</v>
+        <v>55.1</v>
       </c>
       <c r="F3">
-        <v>1.05</v>
+        <v>1.61</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I3">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J3">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="K3">
-        <v>67.7</v>
+        <v>66.5</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>54.86376272656823</v>
+        <v>54.84087454262382</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -64,19 +64,19 @@
     <t>2025-12-05</t>
   </si>
   <si>
+    <t>Gold Feb 26</t>
+  </si>
+  <si>
     <t>StreetTRACKS Gold Shares</t>
   </si>
   <si>
-    <t>Gold Feb 26</t>
-  </si>
-  <si>
     <t>Newmont Corporation</t>
   </si>
   <si>
+    <t>GC=F</t>
+  </si>
+  <si>
     <t>GLD</t>
-  </si>
-  <si>
-    <t>GC=F</t>
   </si>
   <si>
     <t>NEM</t>
@@ -510,28 +510,28 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>387.13</v>
+        <v>4238.5</v>
       </c>
       <c r="E2">
-        <v>56.3</v>
+        <v>55.7</v>
       </c>
       <c r="F2">
-        <v>1.05</v>
+        <v>1.76</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I2">
         <v>83</v>
       </c>
       <c r="J2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K2">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -557,28 +557,28 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>4232.2</v>
+        <v>387.13</v>
       </c>
       <c r="E3">
-        <v>55.1</v>
+        <v>56.3</v>
       </c>
       <c r="F3">
-        <v>1.61</v>
+        <v>1.05</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I3">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J3">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="K3">
-        <v>66.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
@@ -625,7 +625,7 @@
         <v>86</v>
       </c>
       <c r="K4">
-        <v>66.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>54.84087454262382</v>
+        <v>54.82400714602223</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -64,19 +64,19 @@
     <t>2025-12-05</t>
   </si>
   <si>
+    <t>StreetTRACKS Gold Shares</t>
+  </si>
+  <si>
     <t>Gold Feb 26</t>
   </si>
   <si>
-    <t>StreetTRACKS Gold Shares</t>
-  </si>
-  <si>
     <t>Newmont Corporation</t>
   </si>
   <si>
+    <t>GLD</t>
+  </si>
+  <si>
     <t>GC=F</t>
-  </si>
-  <si>
-    <t>GLD</t>
   </si>
   <si>
     <t>NEM</t>
@@ -510,28 +510,28 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>4238.5</v>
+        <v>387.13</v>
       </c>
       <c r="E2">
-        <v>55.7</v>
+        <v>56.3</v>
       </c>
       <c r="F2">
-        <v>1.76</v>
+        <v>1.05</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I2">
         <v>83</v>
       </c>
       <c r="J2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="K2">
-        <v>67.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -557,28 +557,28 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>387.13</v>
+        <v>4242</v>
       </c>
       <c r="E3">
-        <v>56.3</v>
+        <v>56.1</v>
       </c>
       <c r="F3">
-        <v>1.05</v>
+        <v>1.84</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I3">
+        <v>80</v>
+      </c>
+      <c r="J3">
         <v>83</v>
       </c>
-      <c r="J3">
-        <v>96</v>
-      </c>
       <c r="K3">
-        <v>67.59999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
@@ -625,7 +625,7 @@
         <v>86</v>
       </c>
       <c r="K4">
-        <v>66.40000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>54.82400714602223</v>
+        <v>54.83846622768671</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -67,19 +67,19 @@
     <t>StreetTRACKS Gold Shares</t>
   </si>
   <si>
+    <t>Newmont Corporation</t>
+  </si>
+  <si>
     <t>Gold Feb 26</t>
   </si>
   <si>
-    <t>Newmont Corporation</t>
-  </si>
-  <si>
     <t>GLD</t>
   </si>
   <si>
+    <t>NEM</t>
+  </si>
+  <si>
     <t>GC=F</t>
-  </si>
-  <si>
-    <t>NEM</t>
   </si>
   <si>
     <t>Pattern</t>
@@ -531,7 +531,7 @@
         <v>96</v>
       </c>
       <c r="K2">
-        <v>67.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -557,28 +557,28 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>4242</v>
+        <v>90.72</v>
       </c>
       <c r="E3">
-        <v>56.1</v>
+        <v>52.7</v>
       </c>
       <c r="F3">
-        <v>1.84</v>
+        <v>0.22</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I3">
         <v>80</v>
       </c>
       <c r="J3">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K3">
-        <v>66.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
@@ -604,28 +604,28 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>90.72</v>
+        <v>4204.1</v>
       </c>
       <c r="E4">
-        <v>52.7</v>
+        <v>52.1</v>
       </c>
       <c r="F4">
-        <v>0.22</v>
+        <v>0.93</v>
       </c>
       <c r="G4">
         <v>60</v>
       </c>
       <c r="H4">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="I4">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J4">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K4">
-        <v>66.5</v>
+        <v>64.8</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>54.83846622768671</v>
+        <v>54.77309453746771</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -531,7 +531,7 @@
         <v>96</v>
       </c>
       <c r="K2">
-        <v>67.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -578,7 +578,7 @@
         <v>86</v>
       </c>
       <c r="K3">
-        <v>66.40000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
@@ -604,28 +604,28 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4204.1</v>
+        <v>4249.3</v>
       </c>
       <c r="E4">
-        <v>52.1</v>
+        <v>72.3</v>
       </c>
       <c r="F4">
-        <v>0.93</v>
+        <v>0.73</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H4">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I4">
         <v>76</v>
       </c>
       <c r="J4">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K4">
-        <v>64.8</v>
+        <v>60.9</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>54.77309453746771</v>
+        <v>51.53902399942638</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>날짜</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>📈 매수 관찰 구간입니다.</t>
+  </si>
+  <si>
+    <t>⛔ 관망하십시오.</t>
   </si>
   <si>
     <t>⚪ 중립 구간</t>
@@ -531,7 +534,7 @@
         <v>96</v>
       </c>
       <c r="K2">
-        <v>66.7</v>
+        <v>66.5</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -540,10 +543,10 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -578,7 +581,7 @@
         <v>86</v>
       </c>
       <c r="K3">
-        <v>65.5</v>
+        <v>65.3</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -587,10 +590,10 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -604,13 +607,13 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4249.3</v>
+        <v>4255</v>
       </c>
       <c r="E4">
-        <v>72.3</v>
+        <v>72.8</v>
       </c>
       <c r="F4">
-        <v>0.73</v>
+        <v>0.87</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -619,25 +622,25 @@
         <v>73</v>
       </c>
       <c r="I4">
+        <v>73</v>
+      </c>
+      <c r="J4">
         <v>76</v>
       </c>
-      <c r="J4">
-        <v>80</v>
-      </c>
       <c r="K4">
-        <v>60.9</v>
+        <v>59.5</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4">
-        <v>51.53902399942638</v>
+        <v>51.15965480231979</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -543,7 +543,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -607,13 +607,13 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4255</v>
+        <v>4254.1</v>
       </c>
       <c r="E4">
-        <v>72.8</v>
+        <v>72.7</v>
       </c>
       <c r="F4">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="N4">
-        <v>51.15965480231979</v>
+        <v>51.05762969290213</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -61,7 +61,7 @@
     <t>MACRO_SIGNAL</t>
   </si>
   <si>
-    <t>2025-12-05</t>
+    <t>2025-12-06</t>
   </si>
   <si>
     <t>StreetTRACKS Gold Shares</t>
@@ -513,28 +513,28 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>387.13</v>
+        <v>390.28</v>
       </c>
       <c r="E2">
-        <v>56.3</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="F2">
-        <v>1.05</v>
+        <v>0.62</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K2">
-        <v>66.5</v>
+        <v>62.5</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -543,7 +543,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -560,28 +560,28 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>90.72</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="E3">
-        <v>52.7</v>
+        <v>58.6</v>
       </c>
       <c r="F3">
-        <v>0.22</v>
+        <v>0.66</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J3">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K3">
-        <v>65.3</v>
+        <v>61.5</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="N3">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -607,13 +607,13 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4254.1</v>
+        <v>4270.1</v>
       </c>
       <c r="E4">
-        <v>72.7</v>
+        <v>73.8</v>
       </c>
       <c r="F4">
-        <v>0.85</v>
+        <v>1.23</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -628,7 +628,7 @@
         <v>76</v>
       </c>
       <c r="K4">
-        <v>59.5</v>
+        <v>59.7</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="N4">
-        <v>51.05762969290213</v>
+        <v>51.54219175917372</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -67,19 +67,19 @@
     <t>StreetTRACKS Gold Shares</t>
   </si>
   <si>
+    <t>Gold Feb 26</t>
+  </si>
+  <si>
     <t>Newmont Corporation</t>
   </si>
   <si>
-    <t>Gold Feb 26</t>
-  </si>
-  <si>
     <t>GLD</t>
   </si>
   <si>
+    <t>GC=F</t>
+  </si>
+  <si>
     <t>NEM</t>
-  </si>
-  <si>
-    <t>GC=F</t>
   </si>
   <si>
     <t>Pattern</t>
@@ -513,28 +513,28 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>390.28</v>
+        <v>387.17</v>
       </c>
       <c r="E2">
-        <v>73.59999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F2">
-        <v>0.62</v>
+        <v>-0.18</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J2">
         <v>93</v>
       </c>
       <c r="K2">
-        <v>62.5</v>
+        <v>60.4</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -543,7 +543,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -560,37 +560,37 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>91.31999999999999</v>
+        <v>4270.1</v>
       </c>
       <c r="E3">
-        <v>58.6</v>
+        <v>73.8</v>
       </c>
       <c r="F3">
-        <v>0.66</v>
+        <v>1.23</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H3">
+        <v>73</v>
+      </c>
+      <c r="I3">
+        <v>73</v>
+      </c>
+      <c r="J3">
         <v>76</v>
       </c>
-      <c r="I3">
-        <v>70</v>
-      </c>
-      <c r="J3">
-        <v>83</v>
-      </c>
       <c r="K3">
-        <v>61.5</v>
+        <v>59.4</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -607,28 +607,28 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4270.1</v>
+        <v>90.42</v>
       </c>
       <c r="E4">
-        <v>73.8</v>
+        <v>56.6</v>
       </c>
       <c r="F4">
-        <v>1.23</v>
+        <v>-0.34</v>
       </c>
       <c r="G4">
         <v>50</v>
       </c>
       <c r="H4">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I4">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J4">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K4">
-        <v>59.7</v>
+        <v>58.2</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="N4">
-        <v>51.54219175917372</v>
+        <v>50.60178744571824</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -513,28 +513,28 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>387.17</v>
+        <v>386.36</v>
       </c>
       <c r="E2">
-        <v>70.59999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F2">
-        <v>-0.18</v>
+        <v>-0.39</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J2">
         <v>93</v>
       </c>
       <c r="K2">
-        <v>60.4</v>
+        <v>62.2</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -543,7 +543,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -560,13 +560,13 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>4270.1</v>
+        <v>4249.1</v>
       </c>
       <c r="E3">
-        <v>73.8</v>
+        <v>72.3</v>
       </c>
       <c r="F3">
-        <v>1.23</v>
+        <v>0.73</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -575,22 +575,22 @@
         <v>73</v>
       </c>
       <c r="I3">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J3">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K3">
-        <v>59.4</v>
+        <v>60.6</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -607,13 +607,13 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>90.42</v>
+        <v>90.29000000000001</v>
       </c>
       <c r="E4">
-        <v>56.6</v>
+        <v>56.3</v>
       </c>
       <c r="F4">
-        <v>-0.34</v>
+        <v>-0.48</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="N4">
-        <v>50.60178744571824</v>
+        <v>50.68470204858703</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -64,22 +64,22 @@
     <t>2025-12-06</t>
   </si>
   <si>
+    <t>Newmont Corporation</t>
+  </si>
+  <si>
     <t>StreetTRACKS Gold Shares</t>
   </si>
   <si>
     <t>Gold Feb 26</t>
   </si>
   <si>
-    <t>Newmont Corporation</t>
+    <t>NEM</t>
   </si>
   <si>
     <t>GLD</t>
   </si>
   <si>
     <t>GC=F</t>
-  </si>
-  <si>
-    <t>NEM</t>
   </si>
   <si>
     <t>Pattern</t>
@@ -513,28 +513,28 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>386.36</v>
+        <v>90.86</v>
       </c>
       <c r="E2">
-        <v>68.59999999999999</v>
+        <v>57.7</v>
       </c>
       <c r="F2">
-        <v>-0.39</v>
+        <v>0.15</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K2">
-        <v>62.2</v>
+        <v>60.7</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -543,7 +543,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -560,37 +560,37 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>4249.1</v>
+        <v>387.73</v>
       </c>
       <c r="E3">
-        <v>72.3</v>
+        <v>71.2</v>
       </c>
       <c r="F3">
-        <v>0.73</v>
+        <v>-0.04</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I3">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J3">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K3">
-        <v>60.6</v>
+        <v>59.9</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -607,28 +607,28 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>90.29000000000001</v>
+        <v>4239</v>
       </c>
       <c r="E4">
-        <v>56.3</v>
+        <v>71.5</v>
       </c>
       <c r="F4">
-        <v>-0.48</v>
+        <v>0.49</v>
       </c>
       <c r="G4">
         <v>50</v>
       </c>
       <c r="H4">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I4">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J4">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K4">
-        <v>58.2</v>
+        <v>58.9</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="N4">
-        <v>50.68470204858703</v>
+        <v>49.16024380385575</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>

--- a/DECISION/헷징_금_분석.xlsx
+++ b/DECISION/헷징_금_분석.xlsx
@@ -64,22 +64,22 @@
     <t>2025-12-06</t>
   </si>
   <si>
+    <t>StreetTRACKS Gold Shares</t>
+  </si>
+  <si>
+    <t>Gold Feb 26</t>
+  </si>
+  <si>
     <t>Newmont Corporation</t>
   </si>
   <si>
-    <t>StreetTRACKS Gold Shares</t>
-  </si>
-  <si>
-    <t>Gold Feb 26</t>
+    <t>GLD</t>
+  </si>
+  <si>
+    <t>GC=F</t>
   </si>
   <si>
     <t>NEM</t>
-  </si>
-  <si>
-    <t>GLD</t>
-  </si>
-  <si>
-    <t>GC=F</t>
   </si>
   <si>
     <t>Pattern</t>
@@ -513,28 +513,28 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>90.86</v>
+        <v>386.44</v>
       </c>
       <c r="E2">
-        <v>57.7</v>
+        <v>68.8</v>
       </c>
       <c r="F2">
-        <v>0.15</v>
+        <v>-0.37</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K2">
-        <v>60.7</v>
+        <v>62.7</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -543,7 +543,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -560,25 +560,25 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>387.73</v>
+        <v>4212.9</v>
       </c>
       <c r="E3">
-        <v>71.2</v>
+        <v>69.2</v>
       </c>
       <c r="F3">
-        <v>-0.04</v>
+        <v>-0.13</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I3">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J3">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K3">
         <v>59.9</v>
@@ -590,7 +590,7 @@
         <v>24</v>
       </c>
       <c r="N3">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -607,28 +607,28 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4239</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="E4">
-        <v>71.5</v>
+        <v>54.9</v>
       </c>
       <c r="F4">
-        <v>0.49</v>
+        <v>-1.07</v>
       </c>
       <c r="G4">
         <v>50</v>
       </c>
       <c r="H4">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I4">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J4">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K4">
-        <v>58.9</v>
+        <v>57.1</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="N4">
-        <v>49.16024380385575</v>
+        <v>52.28493729186943</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
